--- a/sample_data/general_ledger.xlsx
+++ b/sample_data/general_ledger.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -6013,7 +6013,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7729,7 +7729,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7969,7 +7969,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8113,7 +8113,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8317,7 +8317,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9169,7 +9169,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9457,7 +9457,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -9949,7 +9949,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9985,7 +9985,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -9997,7 +9997,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10189,7 +10189,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10237,7 +10237,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10477,7 +10477,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10525,7 +10525,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10813,7 +10813,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10849,7 +10849,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10909,7 +10909,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -11005,7 +11005,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11101,7 +11101,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11293,7 +11293,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11389,7 +11389,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11437,7 +11437,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11485,7 +11485,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11533,7 +11533,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11581,7 +11581,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11725,7 +11725,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11761,7 +11761,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -11773,7 +11773,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11821,7 +11821,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11869,7 +11869,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11917,7 +11917,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -12013,7 +12013,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -12061,7 +12061,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12157,7 +12157,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12205,7 +12205,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12253,7 +12253,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12349,7 +12349,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12397,7 +12397,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12445,7 +12445,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12493,7 +12493,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12589,7 +12589,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12637,7 +12637,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12685,7 +12685,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12781,7 +12781,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12877,7 +12877,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12913,7 +12913,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -12925,7 +12925,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12973,7 +12973,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -13069,7 +13069,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13117,7 +13117,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13165,7 +13165,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13213,7 +13213,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13249,7 +13249,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13309,7 +13309,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13357,7 +13357,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13405,7 +13405,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13501,7 +13501,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13537,7 +13537,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13597,7 +13597,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13645,7 +13645,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13693,7 +13693,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13741,7 +13741,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13789,7 +13789,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13837,7 +13837,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13885,7 +13885,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13933,7 +13933,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13981,7 +13981,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -14029,7 +14029,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -14077,7 +14077,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -14125,7 +14125,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -14173,7 +14173,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14221,7 +14221,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14269,7 +14269,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14317,7 +14317,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14365,7 +14365,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14413,7 +14413,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14449,7 +14449,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14509,7 +14509,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14557,7 +14557,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14605,7 +14605,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14653,7 +14653,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14701,7 +14701,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14737,7 +14737,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -14749,7 +14749,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14797,7 +14797,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14845,7 +14845,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14881,7 +14881,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14929,7 +14929,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14941,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14989,7 +14989,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -15025,7 +15025,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -15037,7 +15037,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -15085,7 +15085,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15133,7 +15133,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15229,7 +15229,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15277,7 +15277,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15325,7 +15325,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15373,7 +15373,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15421,7 +15421,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15469,7 +15469,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15517,7 +15517,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15565,7 +15565,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15709,7 +15709,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15757,7 +15757,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15853,7 +15853,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15889,7 +15889,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15949,7 +15949,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15997,7 +15997,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -16045,7 +16045,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -16093,7 +16093,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16141,7 +16141,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16189,7 +16189,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16237,7 +16237,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16285,7 +16285,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16333,7 +16333,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16381,7 +16381,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16429,7 +16429,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16477,7 +16477,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16525,7 +16525,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16621,7 +16621,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16669,7 +16669,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16717,7 +16717,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16765,7 +16765,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16813,7 +16813,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16861,7 +16861,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16909,7 +16909,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16957,7 +16957,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -17053,7 +17053,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -17101,7 +17101,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17149,7 +17149,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17197,7 +17197,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17245,7 +17245,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17293,7 +17293,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17341,7 +17341,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17389,7 +17389,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17437,7 +17437,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17485,7 +17485,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17521,7 +17521,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -17533,7 +17533,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17581,7 +17581,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17629,7 +17629,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17677,7 +17677,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17725,7 +17725,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17773,7 +17773,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17821,7 +17821,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17869,7 +17869,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17917,7 +17917,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17965,7 +17965,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -18013,7 +18013,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -18061,7 +18061,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18109,7 +18109,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18145,7 +18145,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -18157,7 +18157,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18253,7 +18253,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18301,7 +18301,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18349,7 +18349,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18397,7 +18397,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18445,7 +18445,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18493,7 +18493,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18529,7 +18529,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -18541,7 +18541,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18589,7 +18589,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18637,7 +18637,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18685,7 +18685,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18733,7 +18733,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18781,7 +18781,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18829,7 +18829,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18877,7 +18877,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18925,7 +18925,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18973,7 +18973,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -19021,7 +19021,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -19069,7 +19069,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -19117,7 +19117,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19165,7 +19165,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19213,7 +19213,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19261,7 +19261,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19309,7 +19309,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19357,7 +19357,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19405,7 +19405,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19453,7 +19453,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19501,7 +19501,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19549,7 +19549,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19597,7 +19597,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19645,7 +19645,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -19693,7 +19693,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19741,7 +19741,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19789,7 +19789,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19837,7 +19837,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19885,7 +19885,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19933,7 +19933,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -20029,7 +20029,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -20077,7 +20077,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20125,7 +20125,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20173,7 +20173,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20221,7 +20221,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20269,7 +20269,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20317,7 +20317,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20365,7 +20365,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20413,7 +20413,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20461,7 +20461,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20509,7 +20509,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20557,7 +20557,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20605,7 +20605,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20653,7 +20653,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20701,7 +20701,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20749,7 +20749,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20797,7 +20797,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20845,7 +20845,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20893,7 +20893,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20941,7 +20941,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20989,7 +20989,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -21037,7 +21037,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -21085,7 +21085,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21181,7 +21181,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21229,7 +21229,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21277,7 +21277,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21325,7 +21325,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21373,7 +21373,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21421,7 +21421,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21469,7 +21469,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21517,7 +21517,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21565,7 +21565,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21601,7 +21601,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -21613,7 +21613,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21661,7 +21661,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21709,7 +21709,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21757,7 +21757,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21805,7 +21805,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21853,7 +21853,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21901,7 +21901,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21937,7 +21937,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -21949,7 +21949,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21997,7 +21997,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -22045,7 +22045,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -22093,7 +22093,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22141,7 +22141,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22177,7 +22177,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -22189,7 +22189,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22237,7 +22237,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22285,7 +22285,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22333,7 +22333,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22381,7 +22381,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22417,7 +22417,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22477,7 +22477,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22513,7 +22513,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22573,7 +22573,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22621,7 +22621,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22669,7 +22669,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22717,7 +22717,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22765,7 +22765,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22813,7 +22813,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22861,7 +22861,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22909,7 +22909,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22957,7 +22957,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -23005,7 +23005,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -23053,7 +23053,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -23101,7 +23101,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23149,7 +23149,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23197,7 +23197,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23245,7 +23245,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23293,7 +23293,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23341,7 +23341,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23389,7 +23389,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23437,7 +23437,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23485,7 +23485,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23533,7 +23533,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23569,7 +23569,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -23581,7 +23581,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23629,7 +23629,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23677,7 +23677,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -23725,7 +23725,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -23773,7 +23773,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -24013,7 +24013,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -24061,7 +24061,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -24109,7 +24109,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24205,7 +24205,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24241,7 +24241,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -24253,7 +24253,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24301,7 +24301,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24349,7 +24349,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24397,7 +24397,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24445,7 +24445,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24493,7 +24493,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -24529,7 +24529,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -24541,7 +24541,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -24589,7 +24589,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -24637,7 +24637,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -24733,7 +24733,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -24781,7 +24781,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -24817,7 +24817,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -24829,7 +24829,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -24877,7 +24877,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -24925,7 +24925,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -24973,7 +24973,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -25021,7 +25021,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -25069,7 +25069,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -25117,7 +25117,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -25165,7 +25165,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -25201,7 +25201,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -25213,7 +25213,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -25261,7 +25261,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -25309,7 +25309,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -25357,7 +25357,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -25405,7 +25405,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -25453,7 +25453,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -25501,7 +25501,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -25549,7 +25549,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -25597,7 +25597,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -25645,7 +25645,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -25693,7 +25693,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -25741,7 +25741,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -25789,7 +25789,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -25837,7 +25837,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -25885,7 +25885,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -25933,7 +25933,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -25981,7 +25981,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -26029,7 +26029,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -26077,7 +26077,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -26125,7 +26125,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -26173,7 +26173,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -26209,7 +26209,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -26221,7 +26221,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -26269,7 +26269,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -26317,7 +26317,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -26365,7 +26365,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -26413,7 +26413,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -26461,7 +26461,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -26497,7 +26497,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -26509,7 +26509,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -26557,7 +26557,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -26605,7 +26605,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -26653,7 +26653,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -26689,7 +26689,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -26701,7 +26701,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -26749,7 +26749,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -26797,7 +26797,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -26845,7 +26845,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -26893,7 +26893,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -26941,7 +26941,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -26989,7 +26989,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -27025,7 +27025,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -27037,7 +27037,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -27085,7 +27085,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -27133,7 +27133,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -27181,7 +27181,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -27229,7 +27229,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -27265,7 +27265,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -27277,7 +27277,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -27325,7 +27325,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -27373,7 +27373,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -27421,7 +27421,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -27469,7 +27469,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -27517,7 +27517,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -27565,7 +27565,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -27613,7 +27613,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -27661,7 +27661,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -27709,7 +27709,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -27745,7 +27745,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -27757,7 +27757,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -27805,7 +27805,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -27853,7 +27853,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -27901,7 +27901,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -27949,7 +27949,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -27997,7 +27997,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -28045,7 +28045,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -28093,7 +28093,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -28141,7 +28141,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -28189,7 +28189,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -28237,7 +28237,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -28285,7 +28285,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -28333,7 +28333,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -28381,7 +28381,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -28429,7 +28429,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -28477,7 +28477,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -28525,7 +28525,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -28573,7 +28573,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -28621,7 +28621,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -28669,7 +28669,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -28717,7 +28717,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -28753,7 +28753,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -28765,7 +28765,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -28813,7 +28813,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -28861,7 +28861,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -28909,7 +28909,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -28957,7 +28957,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -28993,7 +28993,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -29005,7 +29005,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -29053,7 +29053,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -29101,7 +29101,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -29149,7 +29149,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -29197,7 +29197,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -29245,7 +29245,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -29293,7 +29293,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -29341,7 +29341,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -29389,7 +29389,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -29437,7 +29437,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -29473,7 +29473,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -29485,7 +29485,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -29521,7 +29521,7 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -29533,7 +29533,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -29581,7 +29581,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -29617,7 +29617,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -29629,7 +29629,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -29677,7 +29677,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -29725,7 +29725,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -29773,7 +29773,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -29821,7 +29821,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -29869,7 +29869,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -29917,7 +29917,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -29965,7 +29965,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -30013,7 +30013,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -30061,7 +30061,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -30109,7 +30109,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -30157,7 +30157,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -30205,7 +30205,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -30253,7 +30253,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -30301,7 +30301,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -30337,7 +30337,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -30349,7 +30349,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -30397,7 +30397,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -30445,7 +30445,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -30493,7 +30493,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -30541,7 +30541,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -30589,7 +30589,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -30637,7 +30637,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -30685,7 +30685,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -30733,7 +30733,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -30781,7 +30781,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -30829,7 +30829,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -30877,7 +30877,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -30913,7 +30913,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -30925,7 +30925,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -30961,7 +30961,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -30973,7 +30973,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -31021,7 +31021,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -31057,7 +31057,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -31069,7 +31069,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -31105,7 +31105,7 @@
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -31117,7 +31117,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -31165,7 +31165,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -31213,7 +31213,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -31261,7 +31261,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -31309,7 +31309,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -31357,7 +31357,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -31405,7 +31405,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -31453,7 +31453,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -31501,7 +31501,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -31549,7 +31549,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -31597,7 +31597,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -31645,7 +31645,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -31681,7 +31681,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -31693,7 +31693,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -31741,7 +31741,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -31789,7 +31789,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -31837,7 +31837,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -31885,7 +31885,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -31933,7 +31933,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -31981,7 +31981,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -32029,7 +32029,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -32065,7 +32065,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -32077,7 +32077,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -32125,7 +32125,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -32173,7 +32173,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -32221,7 +32221,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -32269,7 +32269,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -32317,7 +32317,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -32365,7 +32365,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -32413,7 +32413,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -32449,7 +32449,7 @@
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -32461,7 +32461,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -32509,7 +32509,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -32557,7 +32557,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -32605,7 +32605,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -32653,7 +32653,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -32701,7 +32701,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -32749,7 +32749,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -32797,7 +32797,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -32845,7 +32845,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -32893,7 +32893,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -32941,7 +32941,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -32977,7 +32977,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -32989,7 +32989,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -33037,7 +33037,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -33085,7 +33085,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -33133,7 +33133,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -33169,7 +33169,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -33181,7 +33181,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -33217,7 +33217,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -33229,7 +33229,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -33277,7 +33277,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -33325,7 +33325,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -33373,7 +33373,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -33421,7 +33421,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -33469,7 +33469,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -33517,7 +33517,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -33565,7 +33565,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -33613,7 +33613,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -33661,7 +33661,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -33709,7 +33709,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -33757,7 +33757,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -33805,7 +33805,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -33853,7 +33853,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -33901,7 +33901,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -33949,7 +33949,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -33997,7 +33997,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -34045,7 +34045,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -34093,7 +34093,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -34141,7 +34141,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -34189,7 +34189,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -34237,7 +34237,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -34285,7 +34285,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -34333,7 +34333,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -34381,7 +34381,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -34417,7 +34417,7 @@
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -34429,7 +34429,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -34465,7 +34465,7 @@
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -34477,7 +34477,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -34525,7 +34525,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -34573,7 +34573,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -34621,7 +34621,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -34669,7 +34669,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -34717,7 +34717,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -34765,7 +34765,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -34813,7 +34813,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -34861,7 +34861,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -34909,7 +34909,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -34957,7 +34957,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -35005,7 +35005,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -35053,7 +35053,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -35101,7 +35101,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -35149,7 +35149,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -35197,7 +35197,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -35245,7 +35245,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -35293,7 +35293,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -35341,7 +35341,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -35389,7 +35389,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -35437,7 +35437,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -35485,7 +35485,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -35533,7 +35533,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -35581,7 +35581,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -35629,7 +35629,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -35677,7 +35677,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -35725,7 +35725,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -35773,7 +35773,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -35821,7 +35821,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -35869,7 +35869,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -35917,7 +35917,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -35965,7 +35965,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -36013,7 +36013,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -36061,7 +36061,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -36109,7 +36109,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -36157,7 +36157,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -36205,7 +36205,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -36253,7 +36253,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -36301,7 +36301,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -36349,7 +36349,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -36385,7 +36385,7 @@
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -36397,7 +36397,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -36445,7 +36445,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -36493,7 +36493,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -36529,7 +36529,7 @@
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -36541,7 +36541,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -36589,7 +36589,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -36637,7 +36637,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -36685,7 +36685,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -36733,7 +36733,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -36781,7 +36781,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -36829,7 +36829,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -36865,7 +36865,7 @@
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -36877,7 +36877,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -36925,7 +36925,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -36973,7 +36973,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -37021,7 +37021,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -37069,7 +37069,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -37117,7 +37117,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -37165,7 +37165,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -37213,7 +37213,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -37261,7 +37261,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -37309,7 +37309,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -37357,7 +37357,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -37405,7 +37405,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -37453,7 +37453,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -37501,7 +37501,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -37549,7 +37549,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -37597,7 +37597,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -37633,7 +37633,7 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -37645,7 +37645,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -37681,7 +37681,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -37693,7 +37693,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -37741,7 +37741,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -37789,7 +37789,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -37837,7 +37837,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -37885,7 +37885,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -37933,7 +37933,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -37981,7 +37981,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -38029,7 +38029,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -38077,7 +38077,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -38125,7 +38125,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -38173,7 +38173,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -38221,7 +38221,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -38269,7 +38269,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -38317,7 +38317,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -38365,7 +38365,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -38413,7 +38413,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -38449,7 +38449,7 @@
       </c>
       <c r="J792" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -38461,7 +38461,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -38509,7 +38509,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -38557,7 +38557,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -38605,7 +38605,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -38653,7 +38653,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -38701,7 +38701,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -38749,7 +38749,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -38797,7 +38797,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -38833,7 +38833,7 @@
       </c>
       <c r="J800" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -38845,7 +38845,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -38893,7 +38893,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -38929,7 +38929,7 @@
       </c>
       <c r="J802" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -38941,7 +38941,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -38989,7 +38989,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -39037,7 +39037,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -39073,7 +39073,7 @@
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -39085,7 +39085,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -39133,7 +39133,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -39181,7 +39181,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -39229,7 +39229,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -39277,7 +39277,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -39325,7 +39325,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -39373,7 +39373,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -39421,7 +39421,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -39469,7 +39469,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -39517,7 +39517,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -39565,7 +39565,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -39613,7 +39613,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -39661,7 +39661,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -39709,7 +39709,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -39757,7 +39757,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -39805,7 +39805,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -39853,7 +39853,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -39901,7 +39901,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -39949,7 +39949,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -39997,7 +39997,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -40045,7 +40045,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -40093,7 +40093,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -40141,7 +40141,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -40189,7 +40189,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -40237,7 +40237,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -40285,7 +40285,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -40333,7 +40333,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -40381,7 +40381,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -40429,7 +40429,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -40477,7 +40477,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -40525,7 +40525,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -40573,7 +40573,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -40621,7 +40621,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -40669,7 +40669,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -40705,7 +40705,7 @@
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>BANK_STMT_2025-06</t>
+          <t>BANK_STMT_2025-07</t>
         </is>
       </c>
     </row>
@@ -40717,7 +40717,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -40765,7 +40765,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -40813,7 +40813,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -40861,7 +40861,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -40909,7 +40909,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -40957,7 +40957,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -41005,7 +41005,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -41053,7 +41053,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -41101,7 +41101,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -41149,7 +41149,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -41197,7 +41197,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -41245,7 +41245,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -41293,7 +41293,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -41341,7 +41341,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -41389,7 +41389,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -41437,7 +41437,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -41485,7 +41485,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -41533,7 +41533,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -41581,7 +41581,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -41629,7 +41629,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -41677,7 +41677,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -41725,7 +41725,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -41773,7 +41773,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -41821,7 +41821,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -41869,7 +41869,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -41917,7 +41917,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -41965,7 +41965,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -42013,7 +42013,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -42061,7 +42061,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -42109,7 +42109,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -42157,7 +42157,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -42205,7 +42205,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -42253,7 +42253,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -42301,7 +42301,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -42349,7 +42349,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -42397,7 +42397,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -42445,7 +42445,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -42493,7 +42493,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -42541,7 +42541,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -42589,7 +42589,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -42637,7 +42637,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -42685,7 +42685,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -42733,7 +42733,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -42781,7 +42781,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -42829,7 +42829,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -42877,7 +42877,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -42925,7 +42925,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -42973,7 +42973,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -43021,7 +43021,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -43069,7 +43069,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -43117,7 +43117,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -43165,7 +43165,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -43213,7 +43213,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -43261,7 +43261,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -43309,7 +43309,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -43357,7 +43357,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -43405,7 +43405,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -43453,7 +43453,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -43501,7 +43501,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -43549,7 +43549,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -43597,7 +43597,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -43645,7 +43645,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -43693,7 +43693,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -43741,7 +43741,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -43789,7 +43789,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -43837,7 +43837,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
@@ -43885,7 +43885,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -43933,7 +43933,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -43981,7 +43981,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -44029,7 +44029,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -44077,7 +44077,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
@@ -44125,7 +44125,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -44173,7 +44173,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -44221,7 +44221,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -44269,7 +44269,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -44317,7 +44317,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -44365,7 +44365,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -44413,7 +44413,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -44461,7 +44461,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -44509,7 +44509,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -44557,7 +44557,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -44605,7 +44605,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -44653,7 +44653,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -44701,7 +44701,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -44749,7 +44749,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -44797,7 +44797,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -44845,7 +44845,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -44893,7 +44893,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -44941,7 +44941,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -44989,7 +44989,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -45037,7 +45037,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
@@ -45085,7 +45085,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -45133,7 +45133,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -45181,7 +45181,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -45229,7 +45229,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -45277,7 +45277,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -45325,7 +45325,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -45373,7 +45373,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
@@ -45421,7 +45421,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -45469,7 +45469,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -45517,7 +45517,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
@@ -45565,7 +45565,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -45613,7 +45613,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -45661,7 +45661,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -45709,7 +45709,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -45757,7 +45757,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -45805,7 +45805,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
@@ -45853,7 +45853,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
@@ -45901,7 +45901,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -45949,7 +45949,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
